--- a/Go/软件结构.xlsx
+++ b/Go/软件结构.xlsx
@@ -1132,62 +1132,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2456763" cy="275717"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5499100" y="5645150"/>
-          <a:ext cx="2456763" cy="275717"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>IM</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>聊天室的服务端的程序框架改进图</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -2082,16 +2026,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2100,7 +2044,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2857500" y="9372600"/>
+          <a:off x="2393950" y="8724900"/>
           <a:ext cx="1511300" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2152,68 +2096,6 @@
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>保持和服务端的通讯</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="矩形 71"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5575300" y="8420100"/>
-          <a:ext cx="1511300" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>utils.go</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>存放公共工具</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2298,9 +2180,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2310,7 +2192,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6635750" y="9791700"/>
-          <a:ext cx="1358900" cy="609600"/>
+          <a:ext cx="1727200" cy="520700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2339,12 +2221,21 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>utils.go</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>存放公共工具</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Transfer </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>结构体 读写数据</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3054,16 +2945,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3072,8 +2963,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9474200" y="9810750"/>
-          <a:ext cx="4057650" cy="615950"/>
+          <a:off x="469900" y="10636250"/>
+          <a:ext cx="4057650" cy="1435100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3099,69 +2990,80 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>1.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>在服务器维护</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>onlineUser</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>创建</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>userMgr</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>进行管理</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>2.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>在</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>LoginResMess</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>增加一个</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>OnlineUsers[]</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>字段</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>3.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>处理新登录用户数据</a:t>
-          </a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>任务栏</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="矩形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="514350" y="8718550"/>
+          <a:ext cx="1670050" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>CurUser.go</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>维护</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>conn</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3459,8 +3361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F34" workbookViewId="0">
-      <selection activeCell="L65" sqref="L65"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>

--- a/Go/软件结构.xlsx
+++ b/Go/软件结构.xlsx
@@ -3007,7 +3007,27 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>用户登出</a:t>
+            <a:t>修改</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Transfer </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>方法    剥离对</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>message.message</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>的相关处理，为加密传输做准备</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
@@ -3377,8 +3397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="D40" workbookViewId="0">
+      <selection activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
